--- a/src/main/resources/FeatureFiles/DownloadsStartToday_CapellaFormTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/DownloadsStartToday_CapellaFormTestCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE22F9-9F2A-3C4D-9B0F-134AB3F68A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -182,17 +177,17 @@
     <t>DownloadsGetStartedPage_BrandLogo_ImageLink</t>
   </si>
   <si>
-    <t>https://www.couchbase.com/downloads/start-today/</t>
-  </si>
-  <si>
     <t>deviceConfig.browser</t>
+  </si>
+  <si>
+    <t>{BaseURL}+/downloads/start-today/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,21 +583,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
@@ -611,7 +606,7 @@
     <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -633,18 +628,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -652,7 +647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -661,12 +656,12 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -680,7 +675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -691,7 +686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -702,7 +697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -713,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -724,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -735,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -743,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -754,7 +749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -765,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -773,7 +768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
@@ -781,7 +776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -789,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -797,7 +792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -811,7 +806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -822,7 +817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
@@ -830,7 +825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -841,7 +836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
@@ -852,7 +847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
@@ -863,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -874,7 +869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
@@ -885,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
@@ -893,7 +888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>12</v>
       </c>
@@ -904,7 +899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
@@ -915,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>22</v>
       </c>
@@ -923,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
@@ -931,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
@@ -939,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -953,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
@@ -964,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
@@ -975,7 +970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
@@ -986,7 +981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -995,7 +990,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>22</v>
       </c>
@@ -1066,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
@@ -1129,7 +1124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>14</v>
       </c>
@@ -1181,7 +1176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>22</v>
       </c>
@@ -1197,7 +1192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>43</v>
       </c>
@@ -1219,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="5" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
         <v>12</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
@@ -1304,7 +1299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>36</v>
       </c>
@@ -1323,7 +1318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>33</v>
       </c>
@@ -1347,7 +1342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>48</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
         <v>29</v>
       </c>
@@ -1424,7 +1419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" s="5" t="s">
         <v>12</v>
       </c>
@@ -1435,7 +1430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>14</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" s="5" t="s">
         <v>33</v>
       </c>
@@ -1454,7 +1449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>27</v>
       </c>
@@ -1464,38 +1459,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
-    <hyperlink ref="D24" r:id="rId5"/>
-    <hyperlink ref="D25" r:id="rId6"/>
-    <hyperlink ref="D26" r:id="rId7"/>
-    <hyperlink ref="D27" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-    <hyperlink ref="D36" r:id="rId11"/>
-    <hyperlink ref="D37" r:id="rId12"/>
-    <hyperlink ref="D40" r:id="rId13"/>
-    <hyperlink ref="D41" r:id="rId14"/>
-    <hyperlink ref="D34" r:id="rId15" display="S#@$"/>
-    <hyperlink ref="D35" r:id="rId16" display="S#@$"/>
-    <hyperlink ref="D50" r:id="rId17"/>
-    <hyperlink ref="D51" r:id="rId18"/>
-    <hyperlink ref="D52" r:id="rId19"/>
-    <hyperlink ref="D53" r:id="rId20"/>
-    <hyperlink ref="D62" r:id="rId21"/>
-    <hyperlink ref="D63" r:id="rId22"/>
-    <hyperlink ref="D64" r:id="rId23"/>
-    <hyperlink ref="D65" r:id="rId24"/>
-    <hyperlink ref="D67" r:id="rId25"/>
-    <hyperlink ref="D68" r:id="rId26"/>
-    <hyperlink ref="D76" r:id="rId27"/>
-    <hyperlink ref="D77" r:id="rId28"/>
-    <hyperlink ref="D78" r:id="rId29"/>
-    <hyperlink ref="D79" r:id="rId30"/>
-    <hyperlink ref="D81" r:id="rId31"/>
-    <hyperlink ref="D82" r:id="rId32"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D41" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D34" r:id="rId15" display="S#@$" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D35" r:id="rId16" display="S#@$" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D50" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D51" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D52" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D53" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D64" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D67" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D68" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D76" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D77" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D78" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D79" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D81" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D82" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/FeatureFiles/DownloadsStartToday_CapellaFormTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/DownloadsStartToday_CapellaFormTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE22F9-9F2A-3C4D-9B0F-134AB3F68A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1AD93-40CA-6747-88ED-E0171F9991DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>{BaseURL}+/downloads/start-today/</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -591,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,7 +609,7 @@
     <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +622,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -639,7 +645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -647,7 +653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -656,12 +662,12 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -675,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -686,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -697,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -708,7 +714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -719,7 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -730,7 +736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -738,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -749,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -760,7 +766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
